--- a/Case2/result.xlsx
+++ b/Case2/result.xlsx
@@ -423,7 +423,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>1.407182931900024</v>
+        <v>1.555065870285034</v>
       </c>
       <c r="C2">
         <v>1308750057.242312</v>
@@ -437,7 +437,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>1.468693971633911</v>
+        <v>1.504003047943115</v>
       </c>
       <c r="C3">
         <v>177023302.4490232</v>
@@ -451,7 +451,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>5.553585767745972</v>
+        <v>5.739963293075562</v>
       </c>
       <c r="C4">
         <v>583411445.5491903</v>
@@ -465,7 +465,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>5.780557155609131</v>
+        <v>5.849556922912598</v>
       </c>
       <c r="C5">
         <v>990347203.3452796</v>
@@ -479,7 +479,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>6.659716844558716</v>
+        <v>7.076969861984253</v>
       </c>
       <c r="C6">
         <v>1165435875.946776</v>

--- a/Case2/result.xlsx
+++ b/Case2/result.xlsx
@@ -423,7 +423,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>1.555065870285034</v>
+        <v>1.324806928634644</v>
       </c>
       <c r="C2">
         <v>1308750057.242312</v>
@@ -437,7 +437,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>1.504003047943115</v>
+        <v>1.238573789596558</v>
       </c>
       <c r="C3">
         <v>177023302.4490232</v>
@@ -451,7 +451,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>5.739963293075562</v>
+        <v>4.952423810958862</v>
       </c>
       <c r="C4">
         <v>583411445.5491903</v>
@@ -465,7 +465,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>5.849556922912598</v>
+        <v>5.056061983108521</v>
       </c>
       <c r="C5">
         <v>990347203.3452796</v>
@@ -479,7 +479,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>7.076969861984253</v>
+        <v>5.972718954086304</v>
       </c>
       <c r="C6">
         <v>1165435875.946776</v>

--- a/Case2/result.xlsx
+++ b/Case2/result.xlsx
@@ -423,7 +423,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>1.324806928634644</v>
+        <v>1.416651010513306</v>
       </c>
       <c r="C2">
         <v>1308750057.242312</v>
@@ -437,7 +437,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>1.238573789596558</v>
+        <v>1.321876287460327</v>
       </c>
       <c r="C3">
         <v>177023302.4490232</v>
@@ -451,7 +451,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>4.952423810958862</v>
+        <v>5.284679889678955</v>
       </c>
       <c r="C4">
         <v>583411445.5491903</v>
@@ -465,7 +465,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>5.056061983108521</v>
+        <v>5.45139479637146</v>
       </c>
       <c r="C5">
         <v>990347203.3452796</v>
@@ -479,7 +479,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>5.972718954086304</v>
+        <v>6.424814224243164</v>
       </c>
       <c r="C6">
         <v>1165435875.946776</v>

--- a/Case2/result.xlsx
+++ b/Case2/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Data name</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>s5.xlsx</t>
+  </si>
+  <si>
+    <t>s6.xlsx</t>
   </si>
 </sst>
 </file>
@@ -398,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -423,7 +426,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>1.416651010513306</v>
+        <v>1.387730836868286</v>
       </c>
       <c r="C2">
         <v>1308750057.242312</v>
@@ -437,7 +440,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>1.321876287460327</v>
+        <v>1.300904750823975</v>
       </c>
       <c r="C3">
         <v>177023302.4490232</v>
@@ -451,7 +454,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>5.284679889678955</v>
+        <v>5.11339807510376</v>
       </c>
       <c r="C4">
         <v>583411445.5491903</v>
@@ -465,7 +468,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>5.45139479637146</v>
+        <v>5.553899049758911</v>
       </c>
       <c r="C5">
         <v>990347203.3452796</v>
@@ -479,12 +482,26 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>6.424814224243164</v>
+        <v>6.253576040267944</v>
       </c>
       <c r="C6">
         <v>1165435875.946776</v>
       </c>
       <c r="D6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>17.53684973716736</v>
+      </c>
+      <c r="C7">
+        <v>2330634377.342438</v>
+      </c>
+      <c r="D7" t="b">
         <v>1</v>
       </c>
     </row>
